--- a/SimulationStudyData/Model3/Dataset17_Yobs_Run4.xlsx
+++ b/SimulationStudyData/Model3/Dataset17_Yobs_Run4.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="E2" t="n">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="F2" t="n">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="G2" t="n">
-        <v>549</v>
+        <v>277</v>
       </c>
       <c r="H2" t="n">
-        <v>1186</v>
+        <v>268</v>
       </c>
       <c r="I2" t="n">
-        <v>2711</v>
+        <v>347</v>
       </c>
       <c r="J2" t="n">
-        <v>6076</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="E3" t="n">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="F3" t="n">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="G3" t="n">
-        <v>579</v>
+        <v>263</v>
       </c>
       <c r="H3" t="n">
-        <v>1209</v>
+        <v>297</v>
       </c>
       <c r="I3" t="n">
-        <v>2641</v>
+        <v>325</v>
       </c>
       <c r="J3" t="n">
-        <v>5967</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="E4" t="n">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="F4" t="n">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="G4" t="n">
-        <v>574</v>
+        <v>140</v>
       </c>
       <c r="H4" t="n">
-        <v>1169</v>
+        <v>161</v>
       </c>
       <c r="I4" t="n">
-        <v>2745</v>
+        <v>183</v>
       </c>
       <c r="J4" t="n">
-        <v>6005</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>139</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="E5" t="n">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="F5" t="n">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G5" t="n">
-        <v>537</v>
+        <v>280</v>
       </c>
       <c r="H5" t="n">
-        <v>1188</v>
+        <v>342</v>
       </c>
       <c r="I5" t="n">
-        <v>2610</v>
+        <v>318</v>
       </c>
       <c r="J5" t="n">
-        <v>6087</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="E6" t="n">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="F6" t="n">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="G6" t="n">
-        <v>553</v>
+        <v>260</v>
       </c>
       <c r="H6" t="n">
-        <v>1242</v>
+        <v>280</v>
       </c>
       <c r="I6" t="n">
-        <v>2720</v>
+        <v>381</v>
       </c>
       <c r="J6" t="n">
-        <v>5908</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="F7" t="n">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="G7" t="n">
-        <v>565</v>
+        <v>148</v>
       </c>
       <c r="H7" t="n">
-        <v>1209</v>
+        <v>188</v>
       </c>
       <c r="I7" t="n">
-        <v>2592</v>
+        <v>161</v>
       </c>
       <c r="J7" t="n">
-        <v>6011</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="D8" t="n">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="E8" t="n">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="F8" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G8" t="n">
-        <v>511</v>
+        <v>277</v>
       </c>
       <c r="H8" t="n">
-        <v>1221</v>
+        <v>280</v>
       </c>
       <c r="I8" t="n">
-        <v>2754</v>
+        <v>327</v>
       </c>
       <c r="J8" t="n">
-        <v>6161</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="F9" t="n">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="G9" t="n">
-        <v>570</v>
+        <v>169</v>
       </c>
       <c r="H9" t="n">
-        <v>1193</v>
+        <v>155</v>
       </c>
       <c r="I9" t="n">
-        <v>2801</v>
+        <v>179</v>
       </c>
       <c r="J9" t="n">
-        <v>6047</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="G10" t="n">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="H10" t="n">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="I10" t="n">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="J10" t="n">
-        <v>91</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F11" t="n">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="G11" t="n">
-        <v>538</v>
+        <v>144</v>
       </c>
       <c r="H11" t="n">
-        <v>1190</v>
+        <v>153</v>
       </c>
       <c r="I11" t="n">
-        <v>2700</v>
+        <v>186</v>
       </c>
       <c r="J11" t="n">
-        <v>6000</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="E12" t="n">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="F12" t="n">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="G12" t="n">
-        <v>553</v>
+        <v>279</v>
       </c>
       <c r="H12" t="n">
-        <v>1204</v>
+        <v>293</v>
       </c>
       <c r="I12" t="n">
-        <v>2743</v>
+        <v>329</v>
       </c>
       <c r="J12" t="n">
-        <v>6061</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="G13" t="n">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="H13" t="n">
-        <v>37</v>
+        <v>324</v>
       </c>
       <c r="I13" t="n">
-        <v>68</v>
+        <v>352</v>
       </c>
       <c r="J13" t="n">
-        <v>103</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="G14" t="n">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="H14" t="n">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="I14" t="n">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="J14" t="n">
-        <v>103</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="E15" t="n">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="F15" t="n">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="G15" t="n">
-        <v>491</v>
+        <v>250</v>
       </c>
       <c r="H15" t="n">
-        <v>1164</v>
+        <v>262</v>
       </c>
       <c r="I15" t="n">
-        <v>2744</v>
+        <v>341</v>
       </c>
       <c r="J15" t="n">
-        <v>5924</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="E16" t="n">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="F16" t="n">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="G16" t="n">
-        <v>545</v>
+        <v>258</v>
       </c>
       <c r="H16" t="n">
-        <v>1173</v>
+        <v>271</v>
       </c>
       <c r="I16" t="n">
-        <v>2683</v>
+        <v>333</v>
       </c>
       <c r="J16" t="n">
-        <v>5879</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="E17" t="n">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="F17" t="n">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="G17" t="n">
-        <v>543</v>
+        <v>288</v>
       </c>
       <c r="H17" t="n">
-        <v>1237</v>
+        <v>282</v>
       </c>
       <c r="I17" t="n">
-        <v>2619</v>
+        <v>302</v>
       </c>
       <c r="J17" t="n">
-        <v>5954</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>132</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="G18" t="n">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="H18" t="n">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="I18" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="J18" t="n">
-        <v>86</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="F19" t="n">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="G19" t="n">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="H19" t="n">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="I19" t="n">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="J19" t="n">
-        <v>88</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="C20" t="n">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="E20" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F20" t="n">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="G20" t="n">
-        <v>530</v>
+        <v>158</v>
       </c>
       <c r="H20" t="n">
-        <v>1157</v>
+        <v>165</v>
       </c>
       <c r="I20" t="n">
-        <v>2741</v>
+        <v>172</v>
       </c>
       <c r="J20" t="n">
-        <v>6014</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="G21" t="n">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="H21" t="n">
-        <v>57</v>
+        <v>279</v>
       </c>
       <c r="I21" t="n">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="J21" t="n">
-        <v>91</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="B22" t="n">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D22" t="n">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="E22" t="n">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="F22" t="n">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="G22" t="n">
-        <v>552</v>
+        <v>159</v>
       </c>
       <c r="H22" t="n">
-        <v>1154</v>
+        <v>179</v>
       </c>
       <c r="I22" t="n">
-        <v>2708</v>
+        <v>171</v>
       </c>
       <c r="J22" t="n">
-        <v>5887</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="C23" t="n">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="E23" t="n">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="F23" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G23" t="n">
-        <v>544</v>
+        <v>285</v>
       </c>
       <c r="H23" t="n">
-        <v>1184</v>
+        <v>307</v>
       </c>
       <c r="I23" t="n">
-        <v>2619</v>
+        <v>340</v>
       </c>
       <c r="J23" t="n">
-        <v>5921</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="D24" t="n">
-        <v>54</v>
+        <v>215</v>
       </c>
       <c r="E24" t="n">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="F24" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G24" t="n">
-        <v>591</v>
+        <v>287</v>
       </c>
       <c r="H24" t="n">
-        <v>1229</v>
+        <v>314</v>
       </c>
       <c r="I24" t="n">
-        <v>2748</v>
+        <v>328</v>
       </c>
       <c r="J24" t="n">
-        <v>5997</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="D25" t="n">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="E25" t="n">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="F25" t="n">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="G25" t="n">
-        <v>585</v>
+        <v>127</v>
       </c>
       <c r="H25" t="n">
-        <v>1198</v>
+        <v>158</v>
       </c>
       <c r="I25" t="n">
-        <v>2694</v>
+        <v>153</v>
       </c>
       <c r="J25" t="n">
-        <v>6079</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="G26" t="n">
-        <v>27</v>
+        <v>311</v>
       </c>
       <c r="H26" t="n">
-        <v>43</v>
+        <v>297</v>
       </c>
       <c r="I26" t="n">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="J26" t="n">
-        <v>96</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="E27" t="n">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="G27" t="n">
-        <v>527</v>
+        <v>140</v>
       </c>
       <c r="H27" t="n">
-        <v>1284</v>
+        <v>191</v>
       </c>
       <c r="I27" t="n">
-        <v>2791</v>
+        <v>175</v>
       </c>
       <c r="J27" t="n">
-        <v>6125</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="F28" t="n">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="G28" t="n">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="H28" t="n">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="I28" t="n">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="J28" t="n">
-        <v>109</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="B29" t="n">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="C29" t="n">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D29" t="n">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="E29" t="n">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="F29" t="n">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="G29" t="n">
-        <v>561</v>
+        <v>144</v>
       </c>
       <c r="H29" t="n">
-        <v>1229</v>
+        <v>156</v>
       </c>
       <c r="I29" t="n">
-        <v>2755</v>
+        <v>180</v>
       </c>
       <c r="J29" t="n">
-        <v>5905</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="G30" t="n">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="H30" t="n">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="I30" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="J30" t="n">
-        <v>98</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="C31" t="n">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="D31" t="n">
-        <v>54</v>
+        <v>207</v>
       </c>
       <c r="E31" t="n">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="F31" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G31" t="n">
-        <v>539</v>
+        <v>257</v>
       </c>
       <c r="H31" t="n">
-        <v>1259</v>
+        <v>280</v>
       </c>
       <c r="I31" t="n">
-        <v>2673</v>
+        <v>322</v>
       </c>
       <c r="J31" t="n">
-        <v>6064</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="E32" t="n">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="F32" t="n">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="G32" t="n">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="H32" t="n">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="I32" t="n">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="J32" t="n">
-        <v>100</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="D33" t="n">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="E33" t="n">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="F33" t="n">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="G33" t="n">
-        <v>558</v>
+        <v>294</v>
       </c>
       <c r="H33" t="n">
-        <v>1163</v>
+        <v>293</v>
       </c>
       <c r="I33" t="n">
-        <v>2671</v>
+        <v>342</v>
       </c>
       <c r="J33" t="n">
-        <v>6061</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="B34" t="n">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="D34" t="n">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="E34" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F34" t="n">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="G34" t="n">
-        <v>534</v>
+        <v>134</v>
       </c>
       <c r="H34" t="n">
-        <v>1222</v>
+        <v>152</v>
       </c>
       <c r="I34" t="n">
-        <v>2731</v>
+        <v>169</v>
       </c>
       <c r="J34" t="n">
-        <v>6014</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="B35" t="n">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="C35" t="n">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="D35" t="n">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="E35" t="n">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="F35" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G35" t="n">
-        <v>532</v>
+        <v>276</v>
       </c>
       <c r="H35" t="n">
-        <v>1249</v>
+        <v>291</v>
       </c>
       <c r="I35" t="n">
-        <v>2655</v>
+        <v>301</v>
       </c>
       <c r="J35" t="n">
-        <v>6047</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="E36" t="n">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="F36" t="n">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="G36" t="n">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="H36" t="n">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="I36" t="n">
-        <v>65</v>
+        <v>381</v>
       </c>
       <c r="J36" t="n">
-        <v>91</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B37" t="n">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="D37" t="n">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="E37" t="n">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="F37" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G37" t="n">
-        <v>538</v>
+        <v>242</v>
       </c>
       <c r="H37" t="n">
-        <v>1240</v>
+        <v>324</v>
       </c>
       <c r="I37" t="n">
-        <v>2659</v>
+        <v>289</v>
       </c>
       <c r="J37" t="n">
-        <v>5915</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="B38" t="n">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="D38" t="n">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="E38" t="n">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="F38" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G38" t="n">
-        <v>533</v>
+        <v>276</v>
       </c>
       <c r="H38" t="n">
-        <v>1217</v>
+        <v>304</v>
       </c>
       <c r="I38" t="n">
-        <v>2642</v>
+        <v>346</v>
       </c>
       <c r="J38" t="n">
-        <v>6041</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="E39" t="n">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="F39" t="n">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="G39" t="n">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="H39" t="n">
-        <v>35</v>
+        <v>298</v>
       </c>
       <c r="I39" t="n">
-        <v>64</v>
+        <v>361</v>
       </c>
       <c r="J39" t="n">
-        <v>93</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="B40" t="n">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="F40" t="n">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="G40" t="n">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="H40" t="n">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="I40" t="n">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="J40" t="n">
-        <v>89</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="C41" t="n">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="D41" t="n">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="E41" t="n">
-        <v>122</v>
+        <v>208</v>
       </c>
       <c r="F41" t="n">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="G41" t="n">
-        <v>602</v>
+        <v>237</v>
       </c>
       <c r="H41" t="n">
-        <v>1231</v>
+        <v>316</v>
       </c>
       <c r="I41" t="n">
-        <v>2678</v>
+        <v>299</v>
       </c>
       <c r="J41" t="n">
-        <v>5834</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="B42" t="n">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="C42" t="n">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="D42" t="n">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="E42" t="n">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="F42" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G42" t="n">
-        <v>523</v>
+        <v>290</v>
       </c>
       <c r="H42" t="n">
-        <v>1258</v>
+        <v>303</v>
       </c>
       <c r="I42" t="n">
-        <v>2725</v>
+        <v>314</v>
       </c>
       <c r="J42" t="n">
-        <v>6091</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="C43" t="n">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="D43" t="n">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="E43" t="n">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="F43" t="n">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G43" t="n">
-        <v>575</v>
+        <v>276</v>
       </c>
       <c r="H43" t="n">
-        <v>1200</v>
+        <v>274</v>
       </c>
       <c r="I43" t="n">
-        <v>2672</v>
+        <v>331</v>
       </c>
       <c r="J43" t="n">
-        <v>5843</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="B44" t="n">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="C44" t="n">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="D44" t="n">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="E44" t="n">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="F44" t="n">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="G44" t="n">
-        <v>565</v>
+        <v>257</v>
       </c>
       <c r="H44" t="n">
-        <v>1228</v>
+        <v>323</v>
       </c>
       <c r="I44" t="n">
-        <v>2741</v>
+        <v>339</v>
       </c>
       <c r="J44" t="n">
-        <v>6088</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="C45" t="n">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="D45" t="n">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="E45" t="n">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="F45" t="n">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="G45" t="n">
-        <v>501</v>
+        <v>147</v>
       </c>
       <c r="H45" t="n">
-        <v>1231</v>
+        <v>165</v>
       </c>
       <c r="I45" t="n">
-        <v>2729</v>
+        <v>172</v>
       </c>
       <c r="J45" t="n">
-        <v>6072</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="F46" t="n">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="G46" t="n">
-        <v>42</v>
+        <v>284</v>
       </c>
       <c r="H46" t="n">
-        <v>36</v>
+        <v>297</v>
       </c>
       <c r="I46" t="n">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="J46" t="n">
-        <v>97</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="B47" t="n">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="C47" t="n">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="D47" t="n">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="E47" t="n">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="F47" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G47" t="n">
-        <v>493</v>
+        <v>263</v>
       </c>
       <c r="H47" t="n">
-        <v>1235</v>
+        <v>296</v>
       </c>
       <c r="I47" t="n">
-        <v>2772</v>
+        <v>359</v>
       </c>
       <c r="J47" t="n">
-        <v>6000</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="F48" t="n">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="G48" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="H48" t="n">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="I48" t="n">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="J48" t="n">
-        <v>101</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="B49" t="n">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="D49" t="n">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="E49" t="n">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="F49" t="n">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="G49" t="n">
-        <v>529</v>
+        <v>282</v>
       </c>
       <c r="H49" t="n">
-        <v>1236</v>
+        <v>319</v>
       </c>
       <c r="I49" t="n">
-        <v>2678</v>
+        <v>308</v>
       </c>
       <c r="J49" t="n">
-        <v>5997</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="F50" t="n">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="G50" t="n">
-        <v>28</v>
+        <v>269</v>
       </c>
       <c r="H50" t="n">
-        <v>48</v>
+        <v>277</v>
       </c>
       <c r="I50" t="n">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="J50" t="n">
-        <v>86</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="B51" t="n">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="D51" t="n">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="E51" t="n">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="F51" t="n">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="G51" t="n">
-        <v>548</v>
+        <v>265</v>
       </c>
       <c r="H51" t="n">
-        <v>1231</v>
+        <v>294</v>
       </c>
       <c r="I51" t="n">
-        <v>2649</v>
+        <v>336</v>
       </c>
       <c r="J51" t="n">
-        <v>6088</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="B52" t="n">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="C52" t="n">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="D52" t="n">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="E52" t="n">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c r="F52" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G52" t="n">
-        <v>567</v>
+        <v>254</v>
       </c>
       <c r="H52" t="n">
-        <v>1190</v>
+        <v>274</v>
       </c>
       <c r="I52" t="n">
-        <v>2683</v>
+        <v>291</v>
       </c>
       <c r="J52" t="n">
-        <v>5998</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="E53" t="n">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="F53" t="n">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="G53" t="n">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="H53" t="n">
-        <v>50</v>
+        <v>308</v>
       </c>
       <c r="I53" t="n">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="J53" t="n">
-        <v>108</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="C54" t="n">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="D54" t="n">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="E54" t="n">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="F54" t="n">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="G54" t="n">
-        <v>515</v>
+        <v>249</v>
       </c>
       <c r="H54" t="n">
-        <v>1159</v>
+        <v>291</v>
       </c>
       <c r="I54" t="n">
-        <v>2665</v>
+        <v>341</v>
       </c>
       <c r="J54" t="n">
-        <v>5903</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="E55" t="n">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="F55" t="n">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="G55" t="n">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="H55" t="n">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="I55" t="n">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="J55" t="n">
-        <v>95</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="D56" t="n">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="E56" t="n">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="F56" t="n">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="G56" t="n">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="H56" t="n">
-        <v>57</v>
+        <v>313</v>
       </c>
       <c r="I56" t="n">
-        <v>62</v>
+        <v>349</v>
       </c>
       <c r="J56" t="n">
-        <v>92</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="B57" t="n">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="C57" t="n">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="D57" t="n">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="E57" t="n">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="F57" t="n">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="G57" t="n">
-        <v>496</v>
+        <v>284</v>
       </c>
       <c r="H57" t="n">
-        <v>1206</v>
+        <v>309</v>
       </c>
       <c r="I57" t="n">
-        <v>2789</v>
+        <v>320</v>
       </c>
       <c r="J57" t="n">
-        <v>6107</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B58" t="n">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C58" t="n">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="D58" t="n">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="E58" t="n">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F58" t="n">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="G58" t="n">
-        <v>558</v>
+        <v>145</v>
       </c>
       <c r="H58" t="n">
-        <v>1275</v>
+        <v>171</v>
       </c>
       <c r="I58" t="n">
-        <v>2683</v>
+        <v>159</v>
       </c>
       <c r="J58" t="n">
-        <v>5920</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="B59" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="F59" t="n">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="G59" t="n">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="H59" t="n">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="I59" t="n">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c r="J59" t="n">
-        <v>96</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B60" t="n">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="D60" t="n">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="E60" t="n">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="F60" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G60" t="n">
-        <v>534</v>
+        <v>252</v>
       </c>
       <c r="H60" t="n">
-        <v>1208</v>
+        <v>290</v>
       </c>
       <c r="I60" t="n">
-        <v>2644</v>
+        <v>364</v>
       </c>
       <c r="J60" t="n">
-        <v>6094</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="B61" t="n">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="C61" t="n">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="D61" t="n">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="E61" t="n">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="F61" t="n">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G61" t="n">
-        <v>568</v>
+        <v>290</v>
       </c>
       <c r="H61" t="n">
-        <v>1262</v>
+        <v>285</v>
       </c>
       <c r="I61" t="n">
-        <v>2617</v>
+        <v>358</v>
       </c>
       <c r="J61" t="n">
-        <v>5915</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="B62" t="n">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C62" t="n">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="D62" t="n">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="E62" t="n">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="F62" t="n">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="G62" t="n">
-        <v>537</v>
+        <v>161</v>
       </c>
       <c r="H62" t="n">
-        <v>1148</v>
+        <v>169</v>
       </c>
       <c r="I62" t="n">
-        <v>2651</v>
+        <v>195</v>
       </c>
       <c r="J62" t="n">
-        <v>6070</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="C63" t="n">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D63" t="n">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="E63" t="n">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="F63" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G63" t="n">
-        <v>585</v>
+        <v>254</v>
       </c>
       <c r="H63" t="n">
-        <v>1174</v>
+        <v>276</v>
       </c>
       <c r="I63" t="n">
-        <v>2582</v>
+        <v>349</v>
       </c>
       <c r="J63" t="n">
-        <v>5851</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B64" t="n">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="C64" t="n">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="D64" t="n">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="E64" t="n">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="F64" t="n">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="G64" t="n">
-        <v>531</v>
+        <v>151</v>
       </c>
       <c r="H64" t="n">
-        <v>1190</v>
+        <v>178</v>
       </c>
       <c r="I64" t="n">
-        <v>2645</v>
+        <v>168</v>
       </c>
       <c r="J64" t="n">
-        <v>6062</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="B65" t="n">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="C65" t="n">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="D65" t="n">
-        <v>51</v>
+        <v>202</v>
       </c>
       <c r="E65" t="n">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="F65" t="n">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="G65" t="n">
-        <v>557</v>
+        <v>266</v>
       </c>
       <c r="H65" t="n">
-        <v>1223</v>
+        <v>295</v>
       </c>
       <c r="I65" t="n">
-        <v>2683</v>
+        <v>327</v>
       </c>
       <c r="J65" t="n">
-        <v>6028</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="B66" t="n">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="C66" t="n">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="D66" t="n">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="E66" t="n">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="F66" t="n">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="G66" t="n">
-        <v>520</v>
+        <v>286</v>
       </c>
       <c r="H66" t="n">
-        <v>1303</v>
+        <v>309</v>
       </c>
       <c r="I66" t="n">
-        <v>2527</v>
+        <v>333</v>
       </c>
       <c r="J66" t="n">
-        <v>5948</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="B67" t="n">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D67" t="n">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="E67" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="F67" t="n">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="G67" t="n">
-        <v>523</v>
+        <v>161</v>
       </c>
       <c r="H67" t="n">
-        <v>1202</v>
+        <v>177</v>
       </c>
       <c r="I67" t="n">
-        <v>2726</v>
+        <v>172</v>
       </c>
       <c r="J67" t="n">
-        <v>6003</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="B68" t="n">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="C68" t="n">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="D68" t="n">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="E68" t="n">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F68" t="n">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="G68" t="n">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="H68" t="n">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="I68" t="n">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="J68" t="n">
-        <v>107</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B69" t="n">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="C69" t="n">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="D69" t="n">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="E69" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F69" t="n">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="G69" t="n">
-        <v>547</v>
+        <v>127</v>
       </c>
       <c r="H69" t="n">
-        <v>1203</v>
+        <v>152</v>
       </c>
       <c r="I69" t="n">
-        <v>2735</v>
+        <v>154</v>
       </c>
       <c r="J69" t="n">
-        <v>6092</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="F70" t="n">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="G70" t="n">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="H70" t="n">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="I70" t="n">
-        <v>73</v>
+        <v>332</v>
       </c>
       <c r="J70" t="n">
-        <v>83</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="B71" t="n">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="C71" t="n">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="D71" t="n">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="E71" t="n">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="F71" t="n">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G71" t="n">
-        <v>523</v>
+        <v>274</v>
       </c>
       <c r="H71" t="n">
-        <v>1207</v>
+        <v>242</v>
       </c>
       <c r="I71" t="n">
-        <v>2665</v>
+        <v>339</v>
       </c>
       <c r="J71" t="n">
-        <v>6030</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B72" t="n">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="C72" t="n">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="D72" t="n">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="F72" t="n">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="G72" t="n">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="H72" t="n">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="I72" t="n">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="J72" t="n">
-        <v>93</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="D73" t="n">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="E73" t="n">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="F73" t="n">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="G73" t="n">
-        <v>21</v>
+        <v>280</v>
       </c>
       <c r="H73" t="n">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="I73" t="n">
-        <v>59</v>
+        <v>298</v>
       </c>
       <c r="J73" t="n">
-        <v>102</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="C74" t="n">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="D74" t="n">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="F74" t="n">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="G74" t="n">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="H74" t="n">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="I74" t="n">
-        <v>72</v>
+        <v>317</v>
       </c>
       <c r="J74" t="n">
-        <v>90</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="B75" t="n">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="C75" t="n">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="D75" t="n">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="E75" t="n">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="F75" t="n">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="G75" t="n">
-        <v>560</v>
+        <v>284</v>
       </c>
       <c r="H75" t="n">
-        <v>1197</v>
+        <v>303</v>
       </c>
       <c r="I75" t="n">
-        <v>2645</v>
+        <v>347</v>
       </c>
       <c r="J75" t="n">
-        <v>5934</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="C76" t="n">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="D76" t="n">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="E76" t="n">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="F76" t="n">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="G76" t="n">
-        <v>544</v>
+        <v>278</v>
       </c>
       <c r="H76" t="n">
-        <v>1184</v>
+        <v>278</v>
       </c>
       <c r="I76" t="n">
-        <v>2578</v>
+        <v>326</v>
       </c>
       <c r="J76" t="n">
-        <v>6007</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C77" t="n">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="D77" t="n">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="E77" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F77" t="n">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="G77" t="n">
-        <v>546</v>
+        <v>163</v>
       </c>
       <c r="H77" t="n">
-        <v>1144</v>
+        <v>153</v>
       </c>
       <c r="I77" t="n">
-        <v>2692</v>
+        <v>169</v>
       </c>
       <c r="J77" t="n">
-        <v>6006</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="B78" t="n">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="C78" t="n">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="D78" t="n">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="E78" t="n">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="F78" t="n">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="G78" t="n">
-        <v>517</v>
+        <v>262</v>
       </c>
       <c r="H78" t="n">
-        <v>1218</v>
+        <v>297</v>
       </c>
       <c r="I78" t="n">
-        <v>2709</v>
+        <v>310</v>
       </c>
       <c r="J78" t="n">
-        <v>6099</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="B79" t="n">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="C79" t="n">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="D79" t="n">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="E79" t="n">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="F79" t="n">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="G79" t="n">
-        <v>544</v>
+        <v>297</v>
       </c>
       <c r="H79" t="n">
-        <v>1228</v>
+        <v>317</v>
       </c>
       <c r="I79" t="n">
-        <v>2653</v>
+        <v>325</v>
       </c>
       <c r="J79" t="n">
-        <v>6022</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="B80" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="D80" t="n">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="E80" t="n">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="F80" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G80" t="n">
-        <v>549</v>
+        <v>267</v>
       </c>
       <c r="H80" t="n">
-        <v>1169</v>
+        <v>307</v>
       </c>
       <c r="I80" t="n">
-        <v>2737</v>
+        <v>355</v>
       </c>
       <c r="J80" t="n">
-        <v>6046</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B81" t="n">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C81" t="n">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="D81" t="n">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="E81" t="n">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="F81" t="n">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="G81" t="n">
-        <v>496</v>
+        <v>158</v>
       </c>
       <c r="H81" t="n">
-        <v>1209</v>
+        <v>153</v>
       </c>
       <c r="I81" t="n">
-        <v>2704</v>
+        <v>159</v>
       </c>
       <c r="J81" t="n">
-        <v>6022</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="C82" t="n">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="D82" t="n">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E82" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F82" t="n">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="G82" t="n">
-        <v>550</v>
+        <v>158</v>
       </c>
       <c r="H82" t="n">
-        <v>1236</v>
+        <v>187</v>
       </c>
       <c r="I82" t="n">
-        <v>2649</v>
+        <v>179</v>
       </c>
       <c r="J82" t="n">
-        <v>6022</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="D83" t="n">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="F83" t="n">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="G83" t="n">
-        <v>28</v>
+        <v>278</v>
       </c>
       <c r="H83" t="n">
-        <v>54</v>
+        <v>281</v>
       </c>
       <c r="I83" t="n">
-        <v>68</v>
+        <v>326</v>
       </c>
       <c r="J83" t="n">
-        <v>107</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>144</v>
       </c>
       <c r="B84" t="n">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="C84" t="n">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="D84" t="n">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="E84" t="n">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="F84" t="n">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="G84" t="n">
-        <v>562</v>
+        <v>244</v>
       </c>
       <c r="H84" t="n">
-        <v>1190</v>
+        <v>316</v>
       </c>
       <c r="I84" t="n">
-        <v>2675</v>
+        <v>353</v>
       </c>
       <c r="J84" t="n">
-        <v>6074</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="B85" t="n">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="C85" t="n">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="F85" t="n">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="G85" t="n">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c r="H85" t="n">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="I85" t="n">
-        <v>71</v>
+        <v>317</v>
       </c>
       <c r="J85" t="n">
-        <v>95</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="C86" t="n">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="D86" t="n">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="E86" t="n">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="F86" t="n">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="G86" t="n">
-        <v>554</v>
+        <v>270</v>
       </c>
       <c r="H86" t="n">
-        <v>1196</v>
+        <v>300</v>
       </c>
       <c r="I86" t="n">
-        <v>2782</v>
+        <v>361</v>
       </c>
       <c r="J86" t="n">
-        <v>5962</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="C87" t="n">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="D87" t="n">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="E87" t="n">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="F87" t="n">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="G87" t="n">
-        <v>530</v>
+        <v>171</v>
       </c>
       <c r="H87" t="n">
-        <v>1237</v>
+        <v>172</v>
       </c>
       <c r="I87" t="n">
-        <v>2780</v>
+        <v>185</v>
       </c>
       <c r="J87" t="n">
-        <v>5962</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>172</v>
       </c>
       <c r="C88" t="n">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="E88" t="n">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="F88" t="n">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="G88" t="n">
-        <v>29</v>
+        <v>272</v>
       </c>
       <c r="H88" t="n">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="I88" t="n">
-        <v>91</v>
+        <v>301</v>
       </c>
       <c r="J88" t="n">
-        <v>93</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="E89" t="n">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G89" t="n">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="H89" t="n">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="I89" t="n">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="J89" t="n">
-        <v>91</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2</v>
+        <v>153</v>
       </c>
       <c r="B90" t="n">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="D90" t="n">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="E90" t="n">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="F90" t="n">
-        <v>18</v>
+        <v>270</v>
       </c>
       <c r="G90" t="n">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="H90" t="n">
-        <v>34</v>
+        <v>335</v>
       </c>
       <c r="I90" t="n">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="J90" t="n">
-        <v>104</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B91" t="n">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="C91" t="n">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="D91" t="n">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="E91" t="n">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F91" t="n">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="G91" t="n">
-        <v>577</v>
+        <v>148</v>
       </c>
       <c r="H91" t="n">
-        <v>1222</v>
+        <v>186</v>
       </c>
       <c r="I91" t="n">
-        <v>2626</v>
+        <v>179</v>
       </c>
       <c r="J91" t="n">
-        <v>5980</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="B92" t="n">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C92" t="n">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D92" t="n">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="E92" t="n">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="F92" t="n">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="G92" t="n">
-        <v>564</v>
+        <v>179</v>
       </c>
       <c r="H92" t="n">
-        <v>1230</v>
+        <v>168</v>
       </c>
       <c r="I92" t="n">
-        <v>2799</v>
+        <v>163</v>
       </c>
       <c r="J92" t="n">
-        <v>5931</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="C93" t="n">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="D93" t="n">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="E93" t="n">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="F93" t="n">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="G93" t="n">
-        <v>562</v>
+        <v>261</v>
       </c>
       <c r="H93" t="n">
-        <v>1271</v>
+        <v>320</v>
       </c>
       <c r="I93" t="n">
-        <v>2656</v>
+        <v>301</v>
       </c>
       <c r="J93" t="n">
-        <v>5927</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="D94" t="n">
-        <v>8</v>
+        <v>220</v>
       </c>
       <c r="E94" t="n">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="F94" t="n">
-        <v>21</v>
+        <v>297</v>
       </c>
       <c r="G94" t="n">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="H94" t="n">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="I94" t="n">
-        <v>59</v>
+        <v>321</v>
       </c>
       <c r="J94" t="n">
-        <v>118</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="B95" t="n">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C95" t="n">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="D95" t="n">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="E95" t="n">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="F95" t="n">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="G95" t="n">
-        <v>560</v>
+        <v>175</v>
       </c>
       <c r="H95" t="n">
-        <v>1238</v>
+        <v>171</v>
       </c>
       <c r="I95" t="n">
-        <v>2727</v>
+        <v>178</v>
       </c>
       <c r="J95" t="n">
-        <v>6058</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B96" t="n">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="C96" t="n">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="D96" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="E96" t="n">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="F96" t="n">
-        <v>268</v>
+        <v>155</v>
       </c>
       <c r="G96" t="n">
-        <v>521</v>
+        <v>143</v>
       </c>
       <c r="H96" t="n">
-        <v>1212</v>
+        <v>159</v>
       </c>
       <c r="I96" t="n">
-        <v>2673</v>
+        <v>172</v>
       </c>
       <c r="J96" t="n">
-        <v>6084</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="B97" t="n">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C97" t="n">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="D97" t="n">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="E97" t="n">
-        <v>119</v>
+        <v>241</v>
       </c>
       <c r="F97" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G97" t="n">
-        <v>542</v>
+        <v>282</v>
       </c>
       <c r="H97" t="n">
-        <v>1243</v>
+        <v>290</v>
       </c>
       <c r="I97" t="n">
-        <v>2675</v>
+        <v>360</v>
       </c>
       <c r="J97" t="n">
-        <v>5892</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5</v>
+        <v>163</v>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>218</v>
       </c>
       <c r="E98" t="n">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="F98" t="n">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="G98" t="n">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="H98" t="n">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="I98" t="n">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="J98" t="n">
-        <v>102</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="B99" t="n">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="C99" t="n">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="E99" t="n">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="F99" t="n">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="G99" t="n">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="H99" t="n">
-        <v>46</v>
+        <v>313</v>
       </c>
       <c r="I99" t="n">
-        <v>69</v>
+        <v>333</v>
       </c>
       <c r="J99" t="n">
-        <v>101</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="B100" t="n">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="C100" t="n">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="D100" t="n">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="E100" t="n">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="F100" t="n">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="G100" t="n">
-        <v>550</v>
+        <v>149</v>
       </c>
       <c r="H100" t="n">
-        <v>1229</v>
+        <v>150</v>
       </c>
       <c r="I100" t="n">
-        <v>2704</v>
+        <v>166</v>
       </c>
       <c r="J100" t="n">
-        <v>6247</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B101" t="n">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="C101" t="n">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="D101" t="n">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="E101" t="n">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="F101" t="n">
-        <v>268</v>
+        <v>145</v>
       </c>
       <c r="G101" t="n">
-        <v>545</v>
+        <v>155</v>
       </c>
       <c r="H101" t="n">
-        <v>1304</v>
+        <v>168</v>
       </c>
       <c r="I101" t="n">
-        <v>2704</v>
+        <v>182</v>
       </c>
       <c r="J101" t="n">
-        <v>5977</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="B102" t="n">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="C102" t="n">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="D102" t="n">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="E102" t="n">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="F102" t="n">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="G102" t="n">
-        <v>519</v>
+        <v>258</v>
       </c>
       <c r="H102" t="n">
-        <v>1242</v>
+        <v>305</v>
       </c>
       <c r="I102" t="n">
-        <v>2711</v>
+        <v>319</v>
       </c>
       <c r="J102" t="n">
-        <v>6092</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="B103" t="n">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="C103" t="n">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="D103" t="n">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="E103" t="n">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="F103" t="n">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="G103" t="n">
-        <v>548</v>
+        <v>283</v>
       </c>
       <c r="H103" t="n">
-        <v>1141</v>
+        <v>307</v>
       </c>
       <c r="I103" t="n">
-        <v>2781</v>
+        <v>344</v>
       </c>
       <c r="J103" t="n">
-        <v>6074</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="B104" t="n">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="C104" t="n">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="D104" t="n">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="E104" t="n">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="F104" t="n">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="G104" t="n">
-        <v>545</v>
+        <v>283</v>
       </c>
       <c r="H104" t="n">
-        <v>1185</v>
+        <v>313</v>
       </c>
       <c r="I104" t="n">
-        <v>2749</v>
+        <v>339</v>
       </c>
       <c r="J104" t="n">
-        <v>5993</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="B105" t="n">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="E105" t="n">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="F105" t="n">
-        <v>23</v>
+        <v>265</v>
       </c>
       <c r="G105" t="n">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="H105" t="n">
-        <v>40</v>
+        <v>297</v>
       </c>
       <c r="I105" t="n">
-        <v>67</v>
+        <v>321</v>
       </c>
       <c r="J105" t="n">
-        <v>98</v>
+        <v>367</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="B106" t="n">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="C106" t="n">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="D106" t="n">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="E106" t="n">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="F106" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G106" t="n">
-        <v>516</v>
+        <v>300</v>
       </c>
       <c r="H106" t="n">
-        <v>1237</v>
+        <v>276</v>
       </c>
       <c r="I106" t="n">
-        <v>2711</v>
+        <v>349</v>
       </c>
       <c r="J106" t="n">
-        <v>6075</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="B107" t="n">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="C107" t="n">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="D107" t="n">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="E107" t="n">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="F107" t="n">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G107" t="n">
-        <v>528</v>
+        <v>258</v>
       </c>
       <c r="H107" t="n">
-        <v>1181</v>
+        <v>281</v>
       </c>
       <c r="I107" t="n">
-        <v>2779</v>
+        <v>318</v>
       </c>
       <c r="J107" t="n">
-        <v>6022</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="B108" t="n">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="C108" t="n">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="D108" t="n">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="E108" t="n">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="F108" t="n">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="G108" t="n">
-        <v>536</v>
+        <v>271</v>
       </c>
       <c r="H108" t="n">
-        <v>1222</v>
+        <v>286</v>
       </c>
       <c r="I108" t="n">
-        <v>2657</v>
+        <v>315</v>
       </c>
       <c r="J108" t="n">
-        <v>5993</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="D109" t="n">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="E109" t="n">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="F109" t="n">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="G109" t="n">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="H109" t="n">
-        <v>48</v>
+        <v>325</v>
       </c>
       <c r="I109" t="n">
-        <v>75</v>
+        <v>358</v>
       </c>
       <c r="J109" t="n">
-        <v>104</v>
+        <v>365</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="B110" t="n">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="C110" t="n">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="D110" t="n">
-        <v>55</v>
+        <v>206</v>
       </c>
       <c r="E110" t="n">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="F110" t="n">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="G110" t="n">
-        <v>621</v>
+        <v>270</v>
       </c>
       <c r="H110" t="n">
-        <v>1172</v>
+        <v>276</v>
       </c>
       <c r="I110" t="n">
-        <v>2757</v>
+        <v>335</v>
       </c>
       <c r="J110" t="n">
-        <v>5969</v>
+        <v>359</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B111" t="n">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="C111" t="n">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="D111" t="n">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="E111" t="n">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="F111" t="n">
-        <v>273</v>
+        <v>221</v>
       </c>
       <c r="G111" t="n">
-        <v>521</v>
+        <v>250</v>
       </c>
       <c r="H111" t="n">
-        <v>1232</v>
+        <v>303</v>
       </c>
       <c r="I111" t="n">
-        <v>2680</v>
+        <v>295</v>
       </c>
       <c r="J111" t="n">
-        <v>5962</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B112" t="n">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="C112" t="n">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="D112" t="n">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="E112" t="n">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="G112" t="n">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="H112" t="n">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="I112" t="n">
-        <v>64</v>
+        <v>330</v>
       </c>
       <c r="J112" t="n">
-        <v>98</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="B113" t="n">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="C113" t="n">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="D113" t="n">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="E113" t="n">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="F113" t="n">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G113" t="n">
-        <v>519</v>
+        <v>283</v>
       </c>
       <c r="H113" t="n">
-        <v>1207</v>
+        <v>298</v>
       </c>
       <c r="I113" t="n">
-        <v>2617</v>
+        <v>339</v>
       </c>
       <c r="J113" t="n">
-        <v>5940</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="D114" t="n">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="E114" t="n">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="F114" t="n">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="G114" t="n">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H114" t="n">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="I114" t="n">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="J114" t="n">
-        <v>107</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B115" t="n">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="C115" t="n">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D115" t="n">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="E115" t="n">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="F115" t="n">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="G115" t="n">
-        <v>544</v>
+        <v>148</v>
       </c>
       <c r="H115" t="n">
-        <v>1238</v>
+        <v>129</v>
       </c>
       <c r="I115" t="n">
-        <v>2743</v>
+        <v>204</v>
       </c>
       <c r="J115" t="n">
-        <v>5898</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B116" t="n">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C116" t="n">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="D116" t="n">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="E116" t="n">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="F116" t="n">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="G116" t="n">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="H116" t="n">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="I116" t="n">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="J116" t="n">
-        <v>111</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="B117" t="n">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="C117" t="n">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="D117" t="n">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="E117" t="n">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="F117" t="n">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="G117" t="n">
-        <v>554</v>
+        <v>253</v>
       </c>
       <c r="H117" t="n">
-        <v>1189</v>
+        <v>265</v>
       </c>
       <c r="I117" t="n">
-        <v>2776</v>
+        <v>324</v>
       </c>
       <c r="J117" t="n">
-        <v>5906</v>
+        <v>357</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B118" t="n">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="C118" t="n">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="D118" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E118" t="n">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="F118" t="n">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="G118" t="n">
-        <v>508</v>
+        <v>151</v>
       </c>
       <c r="H118" t="n">
-        <v>1237</v>
+        <v>162</v>
       </c>
       <c r="I118" t="n">
-        <v>2729</v>
+        <v>185</v>
       </c>
       <c r="J118" t="n">
-        <v>6103</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="B119" t="n">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="C119" t="n">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D119" t="n">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="E119" t="n">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="F119" t="n">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="G119" t="n">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="H119" t="n">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="I119" t="n">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="J119" t="n">
-        <v>97</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B120" t="n">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="C120" t="n">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="D120" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="E120" t="n">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="F120" t="n">
         <v>238</v>
       </c>
       <c r="G120" t="n">
-        <v>559</v>
+        <v>266</v>
       </c>
       <c r="H120" t="n">
-        <v>1209</v>
+        <v>318</v>
       </c>
       <c r="I120" t="n">
-        <v>2730</v>
+        <v>341</v>
       </c>
       <c r="J120" t="n">
-        <v>6027</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C121" t="n">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="D121" t="n">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="E121" t="n">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="F121" t="n">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="G121" t="n">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="H121" t="n">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="I121" t="n">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="J121" t="n">
-        <v>101</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="B122" t="n">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="C122" t="n">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="D122" t="n">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="E122" t="n">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="F122" t="n">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="G122" t="n">
-        <v>560</v>
+        <v>249</v>
       </c>
       <c r="H122" t="n">
-        <v>1124</v>
+        <v>307</v>
       </c>
       <c r="I122" t="n">
-        <v>2690</v>
+        <v>305</v>
       </c>
       <c r="J122" t="n">
-        <v>5905</v>
+        <v>376</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="B123" t="n">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="C123" t="n">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="D123" t="n">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="E123" t="n">
-        <v>98</v>
+        <v>239</v>
       </c>
       <c r="F123" t="n">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
-        <v>555</v>
+        <v>258</v>
       </c>
       <c r="H123" t="n">
-        <v>1204</v>
+        <v>306</v>
       </c>
       <c r="I123" t="n">
-        <v>2732</v>
+        <v>335</v>
       </c>
       <c r="J123" t="n">
-        <v>5987</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="B124" t="n">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="C124" t="n">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="D124" t="n">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="E124" t="n">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="F124" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
-        <v>525</v>
+        <v>258</v>
       </c>
       <c r="H124" t="n">
-        <v>1293</v>
+        <v>312</v>
       </c>
       <c r="I124" t="n">
-        <v>2685</v>
+        <v>340</v>
       </c>
       <c r="J124" t="n">
-        <v>6107</v>
+        <v>390</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="B125" t="n">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="C125" t="n">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="D125" t="n">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="E125" t="n">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="F125" t="n">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
-        <v>562</v>
+        <v>266</v>
       </c>
       <c r="H125" t="n">
-        <v>1163</v>
+        <v>316</v>
       </c>
       <c r="I125" t="n">
-        <v>2707</v>
+        <v>354</v>
       </c>
       <c r="J125" t="n">
-        <v>6007</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="B126" t="n">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="C126" t="n">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="D126" t="n">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="E126" t="n">
-        <v>111</v>
+        <v>226</v>
       </c>
       <c r="F126" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G126" t="n">
-        <v>601</v>
+        <v>288</v>
       </c>
       <c r="H126" t="n">
-        <v>1250</v>
+        <v>317</v>
       </c>
       <c r="I126" t="n">
-        <v>2717</v>
+        <v>323</v>
       </c>
       <c r="J126" t="n">
-        <v>6024</v>
+        <v>396</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="B127" t="n">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C127" t="n">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="D127" t="n">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="E127" t="n">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="F127" t="n">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="G127" t="n">
-        <v>540</v>
+        <v>284</v>
       </c>
       <c r="H127" t="n">
-        <v>1220</v>
+        <v>312</v>
       </c>
       <c r="I127" t="n">
-        <v>2654</v>
+        <v>323</v>
       </c>
       <c r="J127" t="n">
-        <v>5879</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="B128" t="n">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="C128" t="n">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="D128" t="n">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="E128" t="n">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F128" t="n">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="G128" t="n">
-        <v>597</v>
+        <v>147</v>
       </c>
       <c r="H128" t="n">
-        <v>1187</v>
+        <v>137</v>
       </c>
       <c r="I128" t="n">
-        <v>2659</v>
+        <v>190</v>
       </c>
       <c r="J128" t="n">
-        <v>5960</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B129" t="n">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="C129" t="n">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="D129" t="n">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="E129" t="n">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="F129" t="n">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="G129" t="n">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="H129" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="I129" t="n">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="J129" t="n">
-        <v>100</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="B130" t="n">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="C130" t="n">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="D130" t="n">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="E130" t="n">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="F130" t="n">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="G130" t="n">
-        <v>513</v>
+        <v>256</v>
       </c>
       <c r="H130" t="n">
-        <v>1195</v>
+        <v>322</v>
       </c>
       <c r="I130" t="n">
-        <v>2779</v>
+        <v>312</v>
       </c>
       <c r="J130" t="n">
-        <v>5923</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="B131" t="n">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="C131" t="n">
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="D131" t="n">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="E131" t="n">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="G131" t="n">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="H131" t="n">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I131" t="n">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="J131" t="n">
-        <v>103</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="B132" t="n">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="C132" t="n">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="D132" t="n">
-        <v>52</v>
+        <v>200</v>
       </c>
       <c r="E132" t="n">
-        <v>129</v>
+        <v>215</v>
       </c>
       <c r="F132" t="n">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G132" t="n">
-        <v>568</v>
+        <v>279</v>
       </c>
       <c r="H132" t="n">
-        <v>1201</v>
+        <v>313</v>
       </c>
       <c r="I132" t="n">
-        <v>2655</v>
+        <v>340</v>
       </c>
       <c r="J132" t="n">
-        <v>5943</v>
+        <v>398</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="B133" t="n">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="C133" t="n">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="D133" t="n">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="E133" t="n">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="F133" t="n">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="G133" t="n">
-        <v>535</v>
+        <v>274</v>
       </c>
       <c r="H133" t="n">
-        <v>1212</v>
+        <v>292</v>
       </c>
       <c r="I133" t="n">
-        <v>2666</v>
+        <v>359</v>
       </c>
       <c r="J133" t="n">
-        <v>6038</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B134" t="n">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="C134" t="n">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="D134" t="n">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="E134" t="n">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="F134" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
-        <v>532</v>
+        <v>271</v>
       </c>
       <c r="H134" t="n">
-        <v>1194</v>
+        <v>299</v>
       </c>
       <c r="I134" t="n">
-        <v>2662</v>
+        <v>315</v>
       </c>
       <c r="J134" t="n">
-        <v>5950</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="D135" t="n">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="E135" t="n">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="F135" t="n">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c r="G135" t="n">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="H135" t="n">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="I135" t="n">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="J135" t="n">
-        <v>83</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="C136" t="n">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="D136" t="n">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="E136" t="n">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="F136" t="n">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="G136" t="n">
-        <v>579</v>
+        <v>247</v>
       </c>
       <c r="H136" t="n">
-        <v>1216</v>
+        <v>301</v>
       </c>
       <c r="I136" t="n">
-        <v>2663</v>
+        <v>312</v>
       </c>
       <c r="J136" t="n">
-        <v>6069</v>
+        <v>373</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="B137" t="n">
-        <v>9</v>
+        <v>155</v>
       </c>
       <c r="C137" t="n">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="D137" t="n">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="E137" t="n">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="F137" t="n">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
-        <v>522</v>
+        <v>286</v>
       </c>
       <c r="H137" t="n">
-        <v>1157</v>
+        <v>300</v>
       </c>
       <c r="I137" t="n">
-        <v>2756</v>
+        <v>346</v>
       </c>
       <c r="J137" t="n">
-        <v>5971</v>
+        <v>343</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="B138" t="n">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="C138" t="n">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="D138" t="n">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="E138" t="n">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="F138" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G138" t="n">
-        <v>513</v>
+        <v>262</v>
       </c>
       <c r="H138" t="n">
-        <v>1135</v>
+        <v>332</v>
       </c>
       <c r="I138" t="n">
-        <v>2685</v>
+        <v>339</v>
       </c>
       <c r="J138" t="n">
-        <v>5883</v>
+        <v>366</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="B139" t="n">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="C139" t="n">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="D139" t="n">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="E139" t="n">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="F139" t="n">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="G139" t="n">
-        <v>523</v>
+        <v>297</v>
       </c>
       <c r="H139" t="n">
-        <v>1160</v>
+        <v>263</v>
       </c>
       <c r="I139" t="n">
-        <v>2672</v>
+        <v>334</v>
       </c>
       <c r="J139" t="n">
-        <v>6062</v>
+        <v>388</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="B140" t="n">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="C140" t="n">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D140" t="n">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="E140" t="n">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="F140" t="n">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="G140" t="n">
-        <v>495</v>
+        <v>278</v>
       </c>
       <c r="H140" t="n">
-        <v>1233</v>
+        <v>265</v>
       </c>
       <c r="I140" t="n">
-        <v>2679</v>
+        <v>335</v>
       </c>
       <c r="J140" t="n">
-        <v>6074</v>
+        <v>380</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="B141" t="n">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C141" t="n">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="D141" t="n">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E141" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="F141" t="n">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="G141" t="n">
-        <v>517</v>
+        <v>145</v>
       </c>
       <c r="H141" t="n">
-        <v>1249</v>
+        <v>166</v>
       </c>
       <c r="I141" t="n">
-        <v>2661</v>
+        <v>161</v>
       </c>
       <c r="J141" t="n">
-        <v>5967</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B142" t="n">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="C142" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="D142" t="n">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="E142" t="n">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="F142" t="n">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="G142" t="n">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="H142" t="n">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="I142" t="n">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="J142" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="B143" t="n">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="C143" t="n">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="D143" t="n">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="E143" t="n">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="F143" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G143" t="n">
-        <v>553</v>
+        <v>270</v>
       </c>
       <c r="H143" t="n">
-        <v>1229</v>
+        <v>281</v>
       </c>
       <c r="I143" t="n">
-        <v>2724</v>
+        <v>309</v>
       </c>
       <c r="J143" t="n">
-        <v>5957</v>
+        <v>334</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="B144" t="n">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="C144" t="n">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="D144" t="n">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="E144" t="n">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="F144" t="n">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="G144" t="n">
-        <v>568</v>
+        <v>271</v>
       </c>
       <c r="H144" t="n">
-        <v>1251</v>
+        <v>267</v>
       </c>
       <c r="I144" t="n">
-        <v>2741</v>
+        <v>303</v>
       </c>
       <c r="J144" t="n">
-        <v>5999</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="B145" t="n">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="C145" t="n">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="D145" t="n">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="E145" t="n">
-        <v>112</v>
+        <v>214</v>
       </c>
       <c r="F145" t="n">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="G145" t="n">
-        <v>489</v>
+        <v>273</v>
       </c>
       <c r="H145" t="n">
-        <v>1175</v>
+        <v>272</v>
       </c>
       <c r="I145" t="n">
-        <v>2665</v>
+        <v>344</v>
       </c>
       <c r="J145" t="n">
-        <v>5777</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="B146" t="n">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="C146" t="n">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="D146" t="n">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="E146" t="n">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="F146" t="n">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="G146" t="n">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="H146" t="n">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="I146" t="n">
-        <v>64</v>
+        <v>355</v>
       </c>
       <c r="J146" t="n">
-        <v>114</v>
+        <v>367</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="B147" t="n">
-        <v>3</v>
+        <v>172</v>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="D147" t="n">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="E147" t="n">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="F147" t="n">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="G147" t="n">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="H147" t="n">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="I147" t="n">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="J147" t="n">
-        <v>113</v>
+        <v>394</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="C148" t="n">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="D148" t="n">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="E148" t="n">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="F148" t="n">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="G148" t="n">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="H148" t="n">
-        <v>39</v>
+        <v>321</v>
       </c>
       <c r="I148" t="n">
-        <v>47</v>
+        <v>318</v>
       </c>
       <c r="J148" t="n">
-        <v>96</v>
+        <v>357</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="B149" t="n">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="C149" t="n">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="D149" t="n">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="E149" t="n">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="F149" t="n">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="G149" t="n">
-        <v>506</v>
+        <v>260</v>
       </c>
       <c r="H149" t="n">
-        <v>1229</v>
+        <v>303</v>
       </c>
       <c r="I149" t="n">
-        <v>2683</v>
+        <v>355</v>
       </c>
       <c r="J149" t="n">
-        <v>6026</v>
+        <v>355</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="B150" t="n">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="C150" t="n">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="D150" t="n">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E150" t="n">
+        <v>139</v>
+      </c>
+      <c r="F150" t="n">
+        <v>136</v>
+      </c>
+      <c r="G150" t="n">
+        <v>175</v>
+      </c>
+      <c r="H150" t="n">
         <v>142</v>
       </c>
-      <c r="F150" t="n">
-        <v>249</v>
-      </c>
-      <c r="G150" t="n">
-        <v>553</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1173</v>
-      </c>
       <c r="I150" t="n">
-        <v>2653</v>
+        <v>168</v>
       </c>
       <c r="J150" t="n">
-        <v>5950</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="B151" t="n">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="D151" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E151" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F151" t="n">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="G151" t="n">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="H151" t="n">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="I151" t="n">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="J151" t="n">
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="B152" t="n">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="C152" t="n">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="D152" t="n">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="E152" t="n">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="F152" t="n">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="G152" t="n">
-        <v>576</v>
+        <v>287</v>
       </c>
       <c r="H152" t="n">
-        <v>1228</v>
+        <v>297</v>
       </c>
       <c r="I152" t="n">
-        <v>2789</v>
+        <v>320</v>
       </c>
       <c r="J152" t="n">
-        <v>5933</v>
+        <v>352</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B153" t="n">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="C153" t="n">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="D153" t="n">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="E153" t="n">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="F153" t="n">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G153" t="n">
-        <v>556</v>
+        <v>247</v>
       </c>
       <c r="H153" t="n">
-        <v>1271</v>
+        <v>308</v>
       </c>
       <c r="I153" t="n">
-        <v>2652</v>
+        <v>372</v>
       </c>
       <c r="J153" t="n">
-        <v>5964</v>
+        <v>370</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="B154" t="n">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="C154" t="n">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="D154" t="n">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="E154" t="n">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="F154" t="n">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="G154" t="n">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="H154" t="n">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="I154" t="n">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="J154" t="n">
-        <v>103</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="B155" t="n">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="C155" t="n">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="D155" t="n">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="E155" t="n">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="F155" t="n">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="G155" t="n">
-        <v>539</v>
+        <v>281</v>
       </c>
       <c r="H155" t="n">
-        <v>1252</v>
+        <v>306</v>
       </c>
       <c r="I155" t="n">
-        <v>2642</v>
+        <v>342</v>
       </c>
       <c r="J155" t="n">
-        <v>6031</v>
+        <v>340</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="B156" t="n">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="C156" t="n">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="D156" t="n">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="E156" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F156" t="n">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="G156" t="n">
-        <v>562</v>
+        <v>166</v>
       </c>
       <c r="H156" t="n">
-        <v>1182</v>
+        <v>153</v>
       </c>
       <c r="I156" t="n">
-        <v>2741</v>
+        <v>132</v>
       </c>
       <c r="J156" t="n">
-        <v>6029</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="B157" t="n">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="C157" t="n">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="D157" t="n">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="E157" t="n">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="F157" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G157" t="n">
-        <v>529</v>
+        <v>243</v>
       </c>
       <c r="H157" t="n">
-        <v>1206</v>
+        <v>300</v>
       </c>
       <c r="I157" t="n">
-        <v>2652</v>
+        <v>337</v>
       </c>
       <c r="J157" t="n">
-        <v>6059</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="B158" t="n">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="C158" t="n">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="D158" t="n">
-        <v>49</v>
+        <v>209</v>
       </c>
       <c r="E158" t="n">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="F158" t="n">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G158" t="n">
-        <v>556</v>
+        <v>271</v>
       </c>
       <c r="H158" t="n">
-        <v>1174</v>
+        <v>310</v>
       </c>
       <c r="I158" t="n">
-        <v>2664</v>
+        <v>340</v>
       </c>
       <c r="J158" t="n">
-        <v>5983</v>
+        <v>345</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="B159" t="n">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="C159" t="n">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="D159" t="n">
-        <v>61</v>
+        <v>178</v>
       </c>
       <c r="E159" t="n">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="F159" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G159" t="n">
-        <v>588</v>
+        <v>262</v>
       </c>
       <c r="H159" t="n">
-        <v>1232</v>
+        <v>304</v>
       </c>
       <c r="I159" t="n">
-        <v>2683</v>
+        <v>347</v>
       </c>
       <c r="J159" t="n">
-        <v>6082</v>
+        <v>334</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="B160" t="n">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="C160" t="n">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="D160" t="n">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="E160" t="n">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="F160" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G160" t="n">
-        <v>546</v>
+        <v>256</v>
       </c>
       <c r="H160" t="n">
-        <v>1166</v>
+        <v>279</v>
       </c>
       <c r="I160" t="n">
-        <v>2645</v>
+        <v>334</v>
       </c>
       <c r="J160" t="n">
-        <v>6026</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="B161" t="n">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="C161" t="n">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="D161" t="n">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="E161" t="n">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="F161" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G161" t="n">
-        <v>553</v>
+        <v>271</v>
       </c>
       <c r="H161" t="n">
-        <v>1219</v>
+        <v>261</v>
       </c>
       <c r="I161" t="n">
-        <v>2739</v>
+        <v>335</v>
       </c>
       <c r="J161" t="n">
-        <v>6058</v>
+        <v>376</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="B162" t="n">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="C162" t="n">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="E162" t="n">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="F162" t="n">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="G162" t="n">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="H162" t="n">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="I162" t="n">
-        <v>64</v>
+        <v>351</v>
       </c>
       <c r="J162" t="n">
-        <v>126</v>
+        <v>367</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="B163" t="n">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C163" t="n">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="D163" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="E163" t="n">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="F163" t="n">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="G163" t="n">
-        <v>544</v>
+        <v>160</v>
       </c>
       <c r="H163" t="n">
-        <v>1180</v>
+        <v>161</v>
       </c>
       <c r="I163" t="n">
-        <v>2804</v>
+        <v>173</v>
       </c>
       <c r="J163" t="n">
-        <v>6145</v>
+        <v>194</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="B164" t="n">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="C164" t="n">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="D164" t="n">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="E164" t="n">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="F164" t="n">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="G164" t="n">
-        <v>555</v>
+        <v>260</v>
       </c>
       <c r="H164" t="n">
-        <v>1182</v>
+        <v>310</v>
       </c>
       <c r="I164" t="n">
-        <v>2675</v>
+        <v>332</v>
       </c>
       <c r="J164" t="n">
-        <v>6025</v>
+        <v>373</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B165" t="n">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="C165" t="n">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D165" t="n">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="E165" t="n">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F165" t="n">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="G165" t="n">
-        <v>536</v>
+        <v>167</v>
       </c>
       <c r="H165" t="n">
-        <v>1261</v>
+        <v>178</v>
       </c>
       <c r="I165" t="n">
-        <v>2682</v>
+        <v>165</v>
       </c>
       <c r="J165" t="n">
-        <v>5978</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="B166" t="n">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="C166" t="n">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="D166" t="n">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="E166" t="n">
-        <v>10</v>
+        <v>216</v>
       </c>
       <c r="F166" t="n">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="G166" t="n">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="H166" t="n">
-        <v>54</v>
+        <v>267</v>
       </c>
       <c r="I166" t="n">
-        <v>67</v>
+        <v>335</v>
       </c>
       <c r="J166" t="n">
-        <v>117</v>
+        <v>342</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="B167" t="n">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="C167" t="n">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="D167" t="n">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="E167" t="n">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="F167" t="n">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G167" t="n">
-        <v>593</v>
+        <v>260</v>
       </c>
       <c r="H167" t="n">
-        <v>1189</v>
+        <v>288</v>
       </c>
       <c r="I167" t="n">
-        <v>2715</v>
+        <v>323</v>
       </c>
       <c r="J167" t="n">
-        <v>5942</v>
+        <v>362</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="B168" t="n">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="C168" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D168" t="n">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="E168" t="n">
-        <v>97</v>
+        <v>228</v>
       </c>
       <c r="F168" t="n">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="G168" t="n">
-        <v>528</v>
+        <v>244</v>
       </c>
       <c r="H168" t="n">
-        <v>1188</v>
+        <v>305</v>
       </c>
       <c r="I168" t="n">
-        <v>2662</v>
+        <v>313</v>
       </c>
       <c r="J168" t="n">
-        <v>6071</v>
+        <v>358</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="B169" t="n">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="C169" t="n">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="D169" t="n">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="E169" t="n">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="F169" t="n">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="G169" t="n">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="H169" t="n">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="I169" t="n">
-        <v>56</v>
+        <v>340</v>
       </c>
       <c r="J169" t="n">
-        <v>90</v>
+        <v>380</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="B170" t="n">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="C170" t="n">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="D170" t="n">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="E170" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F170" t="n">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="G170" t="n">
-        <v>558</v>
+        <v>152</v>
       </c>
       <c r="H170" t="n">
-        <v>1249</v>
+        <v>152</v>
       </c>
       <c r="I170" t="n">
-        <v>2575</v>
+        <v>169</v>
       </c>
       <c r="J170" t="n">
-        <v>5971</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B171" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C171" t="n">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="D171" t="n">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="E171" t="n">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="F171" t="n">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G171" t="n">
-        <v>545</v>
+        <v>273</v>
       </c>
       <c r="H171" t="n">
-        <v>1179</v>
+        <v>271</v>
       </c>
       <c r="I171" t="n">
-        <v>2685</v>
+        <v>370</v>
       </c>
       <c r="J171" t="n">
-        <v>6086</v>
+        <v>370</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="B172" t="n">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="C172" t="n">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="D172" t="n">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="E172" t="n">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="F172" t="n">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="G172" t="n">
-        <v>35</v>
+        <v>266</v>
       </c>
       <c r="H172" t="n">
-        <v>45</v>
+        <v>307</v>
       </c>
       <c r="I172" t="n">
-        <v>68</v>
+        <v>317</v>
       </c>
       <c r="J172" t="n">
-        <v>120</v>
+        <v>374</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="B173" t="n">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="C173" t="n">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="D173" t="n">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="E173" t="n">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="F173" t="n">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="G173" t="n">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="H173" t="n">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="I173" t="n">
-        <v>74</v>
+        <v>362</v>
       </c>
       <c r="J173" t="n">
-        <v>89</v>
+        <v>378</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="B174" t="n">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="C174" t="n">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="D174" t="n">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="E174" t="n">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="F174" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G174" t="n">
-        <v>544</v>
+        <v>272</v>
       </c>
       <c r="H174" t="n">
-        <v>1187</v>
+        <v>311</v>
       </c>
       <c r="I174" t="n">
-        <v>2710</v>
+        <v>329</v>
       </c>
       <c r="J174" t="n">
-        <v>5994</v>
+        <v>385</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="B175" t="n">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="C175" t="n">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="D175" t="n">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="E175" t="n">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="F175" t="n">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="G175" t="n">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="H175" t="n">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="I175" t="n">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="J175" t="n">
-        <v>114</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="B176" t="n">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="C176" t="n">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="D176" t="n">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="E176" t="n">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="F176" t="n">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="G176" t="n">
-        <v>541</v>
+        <v>276</v>
       </c>
       <c r="H176" t="n">
-        <v>1268</v>
+        <v>293</v>
       </c>
       <c r="I176" t="n">
-        <v>2686</v>
+        <v>329</v>
       </c>
       <c r="J176" t="n">
-        <v>6046</v>
+        <v>366</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="B177" t="n">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="C177" t="n">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="D177" t="n">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="E177" t="n">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="F177" t="n">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="G177" t="n">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="H177" t="n">
-        <v>54</v>
+        <v>285</v>
       </c>
       <c r="I177" t="n">
-        <v>63</v>
+        <v>343</v>
       </c>
       <c r="J177" t="n">
-        <v>106</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="B178" t="n">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="C178" t="n">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="D178" t="n">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="E178" t="n">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="F178" t="n">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="G178" t="n">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="H178" t="n">
-        <v>60</v>
+        <v>311</v>
       </c>
       <c r="I178" t="n">
-        <v>61</v>
+        <v>363</v>
       </c>
       <c r="J178" t="n">
-        <v>99</v>
+        <v>394</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="B179" t="n">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="C179" t="n">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="D179" t="n">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="E179" t="n">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="F179" t="n">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="G179" t="n">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="H179" t="n">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="I179" t="n">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="J179" t="n">
-        <v>100</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="C180" t="n">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="D180" t="n">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="E180" t="n">
-        <v>112</v>
+        <v>213</v>
       </c>
       <c r="F180" t="n">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="G180" t="n">
-        <v>567</v>
+        <v>244</v>
       </c>
       <c r="H180" t="n">
-        <v>1227</v>
+        <v>294</v>
       </c>
       <c r="I180" t="n">
-        <v>2733</v>
+        <v>354</v>
       </c>
       <c r="J180" t="n">
-        <v>5949</v>
+        <v>376</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="B181" t="n">
-        <v>9</v>
+        <v>162</v>
       </c>
       <c r="C181" t="n">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="D181" t="n">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="E181" t="n">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="F181" t="n">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="G181" t="n">
-        <v>508</v>
+        <v>243</v>
       </c>
       <c r="H181" t="n">
-        <v>1172</v>
+        <v>312</v>
       </c>
       <c r="I181" t="n">
-        <v>2725</v>
+        <v>338</v>
       </c>
       <c r="J181" t="n">
-        <v>6197</v>
+        <v>366</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="B182" t="n">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="C182" t="n">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="D182" t="n">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="E182" t="n">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="F182" t="n">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="G182" t="n">
-        <v>30</v>
+        <v>277</v>
       </c>
       <c r="H182" t="n">
-        <v>55</v>
+        <v>295</v>
       </c>
       <c r="I182" t="n">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="J182" t="n">
-        <v>102</v>
+        <v>369</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="C183" t="n">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="D183" t="n">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="E183" t="n">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="F183" t="n">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="G183" t="n">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="H183" t="n">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="I183" t="n">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="J183" t="n">
-        <v>109</v>
+        <v>368</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="B184" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="C184" t="n">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D184" t="n">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="E184" t="n">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F184" t="n">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="G184" t="n">
-        <v>548</v>
+        <v>145</v>
       </c>
       <c r="H184" t="n">
-        <v>1154</v>
+        <v>171</v>
       </c>
       <c r="I184" t="n">
-        <v>2632</v>
+        <v>177</v>
       </c>
       <c r="J184" t="n">
-        <v>5907</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="B185" t="n">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="C185" t="n">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="D185" t="n">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="E185" t="n">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="F185" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G185" t="n">
-        <v>534</v>
+        <v>286</v>
       </c>
       <c r="H185" t="n">
-        <v>1232</v>
+        <v>296</v>
       </c>
       <c r="I185" t="n">
-        <v>2691</v>
+        <v>343</v>
       </c>
       <c r="J185" t="n">
-        <v>6009</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="B186" t="n">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="C186" t="n">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="D186" t="n">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="E186" t="n">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="F186" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="G186" t="n">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="H186" t="n">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="I186" t="n">
-        <v>61</v>
+        <v>327</v>
       </c>
       <c r="J186" t="n">
-        <v>87</v>
+        <v>368</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="B187" t="n">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C187" t="n">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="D187" t="n">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="E187" t="n">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F187" t="n">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="G187" t="n">
-        <v>536</v>
+        <v>159</v>
       </c>
       <c r="H187" t="n">
-        <v>1265</v>
+        <v>158</v>
       </c>
       <c r="I187" t="n">
-        <v>2705</v>
+        <v>185</v>
       </c>
       <c r="J187" t="n">
-        <v>6081</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B188" t="n">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="C188" t="n">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="D188" t="n">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="E188" t="n">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="F188" t="n">
+        <v>263</v>
+      </c>
+      <c r="G188" t="n">
         <v>267</v>
       </c>
-      <c r="G188" t="n">
-        <v>536</v>
-      </c>
       <c r="H188" t="n">
-        <v>1236</v>
+        <v>299</v>
       </c>
       <c r="I188" t="n">
-        <v>2675</v>
+        <v>322</v>
       </c>
       <c r="J188" t="n">
-        <v>6058</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="B189" t="n">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="C189" t="n">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="D189" t="n">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="E189" t="n">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="F189" t="n">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="G189" t="n">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="H189" t="n">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="I189" t="n">
-        <v>89</v>
+        <v>323</v>
       </c>
       <c r="J189" t="n">
-        <v>93</v>
+        <v>381</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="B190" t="n">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="C190" t="n">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="D190" t="n">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="E190" t="n">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c r="F190" t="n">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c r="G190" t="n">
-        <v>568</v>
+        <v>270</v>
       </c>
       <c r="H190" t="n">
-        <v>1165</v>
+        <v>321</v>
       </c>
       <c r="I190" t="n">
-        <v>2807</v>
+        <v>355</v>
       </c>
       <c r="J190" t="n">
-        <v>6037</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="B191" t="n">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="C191" t="n">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="D191" t="n">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="E191" t="n">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="F191" t="n">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="G191" t="n">
-        <v>528</v>
+        <v>142</v>
       </c>
       <c r="H191" t="n">
-        <v>1196</v>
+        <v>164</v>
       </c>
       <c r="I191" t="n">
-        <v>2672</v>
+        <v>165</v>
       </c>
       <c r="J191" t="n">
-        <v>6016</v>
+        <v>194</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B192" t="n">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="C192" t="n">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="D192" t="n">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="E192" t="n">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="F192" t="n">
-        <v>246</v>
+        <v>150</v>
       </c>
       <c r="G192" t="n">
-        <v>549</v>
+        <v>158</v>
       </c>
       <c r="H192" t="n">
-        <v>1162</v>
+        <v>150</v>
       </c>
       <c r="I192" t="n">
-        <v>2700</v>
+        <v>166</v>
       </c>
       <c r="J192" t="n">
-        <v>5994</v>
+        <v>175</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="B193" t="n">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="C193" t="n">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="D193" t="n">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="E193" t="n">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="F193" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="G193" t="n">
-        <v>553</v>
+        <v>305</v>
       </c>
       <c r="H193" t="n">
-        <v>1231</v>
+        <v>301</v>
       </c>
       <c r="I193" t="n">
-        <v>2632</v>
+        <v>317</v>
       </c>
       <c r="J193" t="n">
-        <v>6016</v>
+        <v>377</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B194" t="n">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="C194" t="n">
-        <v>5</v>
+        <v>182</v>
       </c>
       <c r="D194" t="n">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="E194" t="n">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="F194" t="n">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="G194" t="n">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="H194" t="n">
-        <v>49</v>
+        <v>280</v>
       </c>
       <c r="I194" t="n">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="J194" t="n">
-        <v>111</v>
+        <v>396</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="B195" t="n">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="C195" t="n">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="D195" t="n">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="E195" t="n">
-        <v>104</v>
+        <v>243</v>
       </c>
       <c r="F195" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G195" t="n">
-        <v>547</v>
+        <v>273</v>
       </c>
       <c r="H195" t="n">
-        <v>1247</v>
+        <v>273</v>
       </c>
       <c r="I195" t="n">
-        <v>2724</v>
+        <v>362</v>
       </c>
       <c r="J195" t="n">
-        <v>5852</v>
+        <v>320</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="B196" t="n">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="C196" t="n">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="D196" t="n">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="E196" t="n">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="F196" t="n">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="G196" t="n">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="H196" t="n">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="I196" t="n">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="J196" t="n">
-        <v>97</v>
+        <v>388</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B197" t="n">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="C197" t="n">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="D197" t="n">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="E197" t="n">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F197" t="n">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="G197" t="n">
-        <v>578</v>
+        <v>153</v>
       </c>
       <c r="H197" t="n">
-        <v>1214</v>
+        <v>166</v>
       </c>
       <c r="I197" t="n">
-        <v>2780</v>
+        <v>179</v>
       </c>
       <c r="J197" t="n">
-        <v>5876</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="B198" t="n">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="C198" t="n">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="D198" t="n">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="E198" t="n">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="F198" t="n">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="G198" t="n">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="H198" t="n">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="I198" t="n">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="J198" t="n">
-        <v>113</v>
+        <v>331</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2</v>
+        <v>164</v>
       </c>
       <c r="B199" t="n">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="C199" t="n">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="D199" t="n">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="E199" t="n">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="F199" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G199" t="n">
-        <v>543</v>
+        <v>263</v>
       </c>
       <c r="H199" t="n">
-        <v>1287</v>
+        <v>281</v>
       </c>
       <c r="I199" t="n">
-        <v>2669</v>
+        <v>341</v>
       </c>
       <c r="J199" t="n">
-        <v>5885</v>
+        <v>338</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="B200" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="C200" t="n">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="D200" t="n">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="E200" t="n">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="F200" t="n">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="G200" t="n">
-        <v>566</v>
+        <v>140</v>
       </c>
       <c r="H200" t="n">
-        <v>1224</v>
+        <v>154</v>
       </c>
       <c r="I200" t="n">
-        <v>2684</v>
+        <v>167</v>
       </c>
       <c r="J200" t="n">
-        <v>6024</v>
+        <v>184</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="B201" t="n">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="C201" t="n">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="D201" t="n">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="E201" t="n">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F201" t="n">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="G201" t="n">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="H201" t="n">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="I201" t="n">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="J201" t="n">
-        <v>93</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
